--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Adam9-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H2">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I2">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J2">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N2">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P2">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q2">
-        <v>1161.914285313552</v>
+        <v>221.4471464001089</v>
       </c>
       <c r="R2">
-        <v>10457.22856782197</v>
+        <v>1993.024317600981</v>
       </c>
       <c r="S2">
-        <v>0.06697409125584219</v>
+        <v>0.01642385879848314</v>
       </c>
       <c r="T2">
-        <v>0.06697409125584218</v>
+        <v>0.01642385879848314</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H3">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I3">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J3">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>318.943398</v>
       </c>
       <c r="O3">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P3">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q3">
-        <v>1097.898610868313</v>
+        <v>385.6883285179067</v>
       </c>
       <c r="R3">
-        <v>9881.087497814813</v>
+        <v>3471.19495666116</v>
       </c>
       <c r="S3">
-        <v>0.06328415330061449</v>
+        <v>0.0286049775342599</v>
       </c>
       <c r="T3">
-        <v>0.06328415330061449</v>
+        <v>0.0286049775342599</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.32689766666667</v>
+        <v>3.627806666666667</v>
       </c>
       <c r="H4">
-        <v>30.980693</v>
+        <v>10.88342</v>
       </c>
       <c r="I4">
-        <v>0.2044815006034941</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="J4">
-        <v>0.204481500603494</v>
+        <v>0.08036675778141429</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N4">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P4">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q4">
-        <v>1287.677964514604</v>
+        <v>476.4703569688622</v>
       </c>
       <c r="R4">
-        <v>11589.10168063144</v>
+        <v>4288.233212719761</v>
       </c>
       <c r="S4">
-        <v>0.07422325604703739</v>
+        <v>0.03533792144867125</v>
       </c>
       <c r="T4">
-        <v>0.07422325604703739</v>
+        <v>0.03533792144867125</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>88.110958</v>
       </c>
       <c r="I5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J5">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N5">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P5">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q5">
-        <v>3304.554252316512</v>
+        <v>1792.811470629623</v>
       </c>
       <c r="R5">
-        <v>29740.9882708486</v>
+        <v>16135.3032356666</v>
       </c>
       <c r="S5">
-        <v>0.190478351847445</v>
+        <v>0.1329657343731179</v>
       </c>
       <c r="T5">
-        <v>0.190478351847445</v>
+        <v>0.1329657343731179</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>88.110958</v>
       </c>
       <c r="I6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J6">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>318.943398</v>
       </c>
       <c r="O6">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P6">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q6">
         <v>3122.489816172809</v>
@@ -818,10 +818,10 @@
         <v>28102.40834555528</v>
       </c>
       <c r="S6">
-        <v>0.1799839459219328</v>
+        <v>0.2315827170238874</v>
       </c>
       <c r="T6">
-        <v>0.1799839459219329</v>
+        <v>0.2315827170238875</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>88.110958</v>
       </c>
       <c r="I7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="J7">
-        <v>0.5815577111671272</v>
+        <v>0.6506403335968259</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N7">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P7">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q7">
-        <v>3662.233735341937</v>
+        <v>3857.451022852046</v>
       </c>
       <c r="R7">
-        <v>32960.10361807743</v>
+        <v>34717.05920566842</v>
       </c>
       <c r="S7">
-        <v>0.2110954133977493</v>
+        <v>0.2860918821998206</v>
       </c>
       <c r="T7">
-        <v>0.2110954133977493</v>
+        <v>0.2860918821998206</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H8">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J8">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>112.513392</v>
+        <v>61.04160633333334</v>
       </c>
       <c r="N8">
-        <v>337.540176</v>
+        <v>183.124819</v>
       </c>
       <c r="O8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="P8">
-        <v>0.3275312977368564</v>
+        <v>0.2043613460574534</v>
       </c>
       <c r="Q8">
-        <v>1215.777933979104</v>
+        <v>741.1983967073719</v>
       </c>
       <c r="R8">
-        <v>10942.00140581193</v>
+        <v>6670.785570366347</v>
       </c>
       <c r="S8">
-        <v>0.07007885463356914</v>
+        <v>0.05497175288585241</v>
       </c>
       <c r="T8">
-        <v>0.07007885463356914</v>
+        <v>0.05497175288585241</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H9">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J9">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>318.943398</v>
       </c>
       <c r="O9">
-        <v>0.3094859589441663</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="P9">
-        <v>0.3094859589441664</v>
+        <v>0.3559304658284363</v>
       </c>
       <c r="Q9">
-        <v>1148.794641490958</v>
+        <v>1290.924608302281</v>
       </c>
       <c r="R9">
-        <v>10339.15177341863</v>
+        <v>11618.32147472053</v>
       </c>
       <c r="S9">
-        <v>0.06621785972161899</v>
+        <v>0.09574277127028898</v>
       </c>
       <c r="T9">
-        <v>0.06621785972161899</v>
+        <v>0.09574277127028899</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.80562866666667</v>
+        <v>12.14251133333333</v>
       </c>
       <c r="H10">
-        <v>32.416886</v>
+        <v>36.427534</v>
       </c>
       <c r="I10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="J10">
-        <v>0.2139607882293788</v>
+        <v>0.2689929086217598</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>124.6916553333333</v>
+        <v>131.3384093333333</v>
       </c>
       <c r="N10">
-        <v>374.074966</v>
+        <v>394.015228</v>
       </c>
       <c r="O10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141102</v>
       </c>
       <c r="P10">
-        <v>0.3629827433189773</v>
+        <v>0.4397081881141103</v>
       </c>
       <c r="Q10">
-        <v>1347.371725363986</v>
+        <v>1594.778123831972</v>
       </c>
       <c r="R10">
-        <v>12126.34552827588</v>
+        <v>14353.00311448775</v>
       </c>
       <c r="S10">
-        <v>0.07766407387419066</v>
+        <v>0.1182783844656184</v>
       </c>
       <c r="T10">
-        <v>0.07766407387419066</v>
+        <v>0.1182783844656184</v>
       </c>
     </row>
   </sheetData>
